--- a/docs/daily_report.xlsx
+++ b/docs/daily_report.xlsx
@@ -512,7 +512,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Daily Logistics Report - 2025-08-09</t>
+          <t>Daily Logistics Report - 2025-08-11</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="22" customHeight="1"/>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="22" customHeight="1">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" ht="22" customHeight="1">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="22" customHeight="1">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
